--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Documents\GitHub\C-y-nh-ph-n-t-m-ki-m-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D273B-1EF9-4C7E-8949-FE5405DD9092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,12 +170,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,7 +261,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -287,7 +288,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -565,18 +566,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="64.875" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="64.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -651,7 +652,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -683,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -703,7 +704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -721,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -730,7 +731,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -748,7 +749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -768,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -786,7 +787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -804,7 +805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,7 +841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,7 +859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -912,7 +913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,7 +935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,7 +957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,7 +979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung Doan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung Doan\Documents\GitHub\C-y-nh-ph-n-t-m-ki-m-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">Bắt sự kiện nhấn phím delete hoặc bấm chuộc phải trong vùng không gian của 1 node để hiện menu xóa node </t>
   </si>
   <si>
-    <t xml:space="preserve">Dồ họa di chuyển qua từng node để đến vị trí đúng trong hàm insert 1 node vào cây  </t>
+    <t xml:space="preserve">Đồ họa di chuyển qua từng node để đến vị trí đúng trong hàm insert 1 node vào cây  </t>
   </si>
 </sst>
 </file>
@@ -355,47 +355,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +709,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,58 +725,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -932,7 +932,7 @@
       <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="6"/>
@@ -1169,100 +1169,100 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="14">
         <v>20</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="16">
         <v>21</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="16">
         <v>22</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="C26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="16">
         <v>23</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="16">
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Đoàn Quốc Hùng</t>
   </si>
@@ -168,13 +168,49 @@
   </si>
   <si>
     <t xml:space="preserve">Đồ họa di chuyển qua từng node để đến vị trí đúng trong hàm insert 1 node vào cây  </t>
+  </si>
+  <si>
+    <t>21/11</t>
+  </si>
+  <si>
+    <t>22/11</t>
+  </si>
+  <si>
+    <t>29/11</t>
+  </si>
+  <si>
+    <t>30/11</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>18/11</t>
+  </si>
+  <si>
+    <t>16/11</t>
+  </si>
+  <si>
+    <t>26/11</t>
+  </si>
+  <si>
+    <t>28/11</t>
+  </si>
+  <si>
+    <t>25/11</t>
+  </si>
+  <si>
+    <t>4/11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +264,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -329,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,16 +371,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,21 +378,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,6 +409,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +725,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,63 +741,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -791,478 +807,590 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
+      <c r="H5" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
+      <c r="H6" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="10">
         <v>21</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>22</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>23</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Kế hoạch.xlsx
+++ b/Kế hoạch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>Đoàn Quốc Hùng</t>
   </si>
@@ -203,7 +203,10 @@
     <t>25/11</t>
   </si>
   <si>
-    <t>4/11</t>
+    <t>9/12</t>
+  </si>
+  <si>
+    <t>4/12</t>
   </si>
 </sst>
 </file>
@@ -387,6 +390,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,9 +415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,7 +728,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,45 +747,45 @@
       <c r="B1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
@@ -813,10 +816,10 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -837,10 +840,10 @@
       <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -855,16 +858,16 @@
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -879,16 +882,16 @@
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -903,13 +906,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -927,13 +930,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -951,13 +954,13 @@
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -984,7 +987,7 @@
       <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1008,7 +1011,7 @@
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1032,7 +1035,7 @@
       <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1047,16 +1050,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1071,16 +1074,16 @@
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1095,16 +1098,16 @@
         <v>5</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1119,16 +1122,16 @@
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1143,16 +1146,16 @@
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1167,16 +1170,16 @@
         <v>5</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1191,16 +1194,16 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1215,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1239,16 +1242,16 @@
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1269,10 +1272,10 @@
       <c r="F24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1293,10 +1296,10 @@
       <c r="F25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1317,11 +1320,11 @@
       <c r="F26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>59</v>
+      <c r="H26" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1338,13 +1341,13 @@
       <c r="E27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1362,13 +1365,13 @@
       <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1386,11 +1389,15 @@
       <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
